--- a/circuits/bf-instructions.xlsx
+++ b/circuits/bf-instructions.xlsx
@@ -7,44 +7,123 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="15180" windowHeight="3225"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="InstructionSet" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>&gt;</t>
   </si>
   <si>
+    <t>increment the data pointer (to point to the next cell to the right).</t>
+  </si>
+  <si>
     <t>&lt;</t>
   </si>
   <si>
+    <t>decrement the data pointer (to point to the next cell to the left).</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
+    <t>increment (increase by one) the byte at the data pointer.</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>decrement (decrease by one) the byte at the data pointer.</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>output the byte at the data pointer.</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
+    <t>accept one byte of input, storing its value in the byte at the data pointer.</t>
+  </si>
+  <si>
     <t>[</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">if the byte at the data pointer is zero, then instead of moving the instruction pointer forward to the next command, jump it </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>forward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the command after the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command.</t>
+    </r>
+  </si>
+  <si>
     <t>]</t>
   </si>
   <si>
-    <t>Invalid</t>
-  </si>
-  <si>
     <t>3e</t>
   </si>
   <si>
@@ -69,23 +148,98 @@
     <t>5d</t>
   </si>
   <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>ASCII-BF</t>
-  </si>
-  <si>
-    <t>Anything else</t>
-  </si>
-  <si>
-    <t>Internal opcode</t>
+    <t>ASCII</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if the byte at the data pointer is nonzero, then instead of moving the instruction pointer forward to the next command, jump it </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>back</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the command after the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command.</t>
+    </r>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>NO-OP</t>
+  </si>
+  <si>
+    <t>Internal OP</t>
+  </si>
+  <si>
+    <t>Anything</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +252,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -127,7 +289,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -137,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -444,157 +606,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="D3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
         <v>6</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C9">
+  <sortState ref="A2:D10">
     <sortCondition ref="C1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" tooltip="Pointer (computer programming)" display="https://en.wikipedia.org/wiki/Pointer_%28computer_programming%29"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/circuits/bf-instructions.xlsx
+++ b/circuits/bf-instructions.xlsx
@@ -606,7 +606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
